--- a/MaHao章节总结_v3.xlsx
+++ b/MaHao章节总结_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="2556" windowWidth="20184" windowHeight="4860" tabRatio="966" activeTab="5"/>
+    <workbookView xWindow="-24" yWindow="2556" windowWidth="20184" windowHeight="4860" tabRatio="966" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="文档目录" sheetId="38" r:id="rId1"/>
@@ -6542,28 +6542,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6717,24 +6701,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D54" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:D54"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="文档编号" dataDxfId="10"/>
-    <tableColumn id="2" name="文档中文名称" dataDxfId="9"/>
-    <tableColumn id="3" name="英文名称" dataDxfId="8"/>
-    <tableColumn id="4" name="Column1" dataDxfId="7"/>
+    <tableColumn id="1" name="文档编号" dataDxfId="8"/>
+    <tableColumn id="2" name="文档中文名称" dataDxfId="7"/>
+    <tableColumn id="3" name="英文名称" dataDxfId="6"/>
+    <tableColumn id="4" name="Column1" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B461" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B461" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:B461"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="SNOMED_Code" dataDxfId="4"/>
-    <tableColumn id="2" name="Display" dataDxfId="3"/>
+    <tableColumn id="1" name="SNOMED_Code" dataDxfId="2"/>
+    <tableColumn id="2" name="Display" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8303,7 +8287,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:D58">
-    <sortCondition sortBy="cellColor" ref="A2:A58" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A58" dxfId="0"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F2:F58"/>
@@ -9128,8 +9112,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18228,8 +18212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289"/>
+    <sheetView topLeftCell="A290" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.25"/>
